--- a/biology/Botanique/Hibbertia/Hibbertia.xlsx
+++ b/biology/Botanique/Hibbertia/Hibbertia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hibbertia, ou Fleur de Guinée, est un genre d'arbustes vivaces, rampants ou grimpants de la famille des Dilleniaceae. Les cinq pétales des fleurs de toutes les espèces sont de diverses teintes de jaune, à l'exception de H. stellaris, H. miniata et H. selkii qui ont toutes des fleurs orange. Le genre compte environ 150 espèces, mais est actuellement en cours de révision par Helmut Toelken du South Australian Herbarium et est susceptible d'augmenter. 
 La plupart de ces espèces -environ 110- sont originaires d'Australie, les autres se trouvant à Madagascar et sur les îles du Pacifique. 
@@ -513,7 +525,9 @@
           <t>Identification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Compte tenu de la similitude de couleur et de forme des fleurs (presque toutes les espèces ont cinq pétales jaunes obovales), une méthode utile d'identification est de compter le nombre d'étamines qui peut varier de 4 à 200 selon les espèces.
 </t>
@@ -544,7 +558,9 @@
           <t>Liste d'espèces (incomplète)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hibbertia acerosa
 Hibbertia acrotrichion
